--- a/data/Model Results (Smote).xlsx
+++ b/data/Model Results (Smote).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachelleflores/Documents/GitHub/hrc-mid-bootcamp-project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E4E74B-EFE1-8D4B-B208-06D16BDD8AF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D599C7-E41C-934F-B377-65A63A6FC209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{1132A9A8-1B71-CC4F-872E-D32DA7E90DF2}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17640" xr2:uid="{1132A9A8-1B71-CC4F-872E-D32DA7E90DF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="26">
   <si>
     <t>Logistic Regression</t>
   </si>
@@ -98,13 +98,28 @@
   </si>
   <si>
     <t>0.96</t>
+  </si>
+  <si>
+    <t>Original Data</t>
+  </si>
+  <si>
+    <t>SMOTE Data</t>
+  </si>
+  <si>
+    <t>0.50</t>
+  </si>
+  <si>
+    <t>SMOTE Top 5 Variables</t>
+  </si>
+  <si>
+    <t>SMOTE Top 5 Variables Dropped</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -114,6 +129,19 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF3B3B3B"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Helvetica"/>
       <family val="2"/>
@@ -139,13 +167,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -461,17 +496,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F84A8C0-8A46-C943-9CA8-3888E59D3190}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="5" width="11.7109375" customWidth="1"/>
+    <col min="1" max="5" width="16.42578125" customWidth="1"/>
     <col min="6" max="6" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -574,7 +607,99 @@
         <v>19</v>
       </c>
     </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+    </row>
+    <row r="11" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:5" ht="57" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B11:E11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
